--- a/data/trans_camb/P16A04-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A04-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.118684309047853</v>
+        <v>1.003288086804796</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.5433614857688546</v>
+        <v>-0.4230600490154546</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.3197361813175199</v>
+        <v>-0.3775145004283213</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.3489352671935149</v>
+        <v>-0.1848522245951945</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.8254768412779756</v>
+        <v>-0.8509581679138493</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.7141926154894953</v>
+        <v>-0.6483508371800821</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8299469251080287</v>
+        <v>0.8046616567338452</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.3528815682611501</v>
+        <v>-0.3209209617533946</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.2092261868708882</v>
+        <v>-0.0851398650474227</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.654266005765016</v>
+        <v>4.525384923684897</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.10108096568512</v>
+        <v>2.095620038456324</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.26055040766763</v>
+        <v>2.225828126399366</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.128704695554155</v>
+        <v>3.112789423557157</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.953202175921493</v>
+        <v>2.05686578749744</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.851765944874657</v>
+        <v>1.849264476280656</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.283540294520197</v>
+        <v>3.197203722600345</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.567191500019165</v>
+        <v>1.570029455760771</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.706469954884778</v>
+        <v>1.713357468969457</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.4924638267350459</v>
+        <v>0.4844092668445375</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4170023157910081</v>
+        <v>-0.3978352705756807</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2648163633757509</v>
+        <v>-0.2858069809475203</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2474253963558871</v>
+        <v>-0.1472659916384421</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3918051537146983</v>
+        <v>-0.3923293752581743</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3085933199388599</v>
+        <v>-0.2777628927433399</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3853045582277156</v>
+        <v>0.3705013554068367</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2189788600597474</v>
+        <v>-0.2024592332294972</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.123171294147088</v>
+        <v>-0.06952521631569578</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>7.542602571641501</v>
+        <v>8.029578480281707</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.055893383815246</v>
+        <v>3.644050996187703</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.454837759017406</v>
+        <v>3.825499534923759</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.838699078402545</v>
+        <v>3.148082686579691</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.972229909852615</v>
+        <v>1.969999352940276</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.034908321434711</v>
+        <v>1.928614608980588</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.269707275325802</v>
+        <v>3.055614026602216</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.529357572723934</v>
+        <v>1.544287286462035</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.75568470468653</v>
+        <v>1.776820578728196</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>0.3007707949751689</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>1.02276630852828</v>
+        <v>1.022766308528281</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.391619075162382</v>
@@ -878,7 +878,7 @@
         <v>-0.1788851574326622</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.332865781964194</v>
+        <v>0.3328657819641944</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.176037629751474</v>
+        <v>-1.079299411327513</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.063167219701236</v>
+        <v>-2.174612183164303</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.868521931464763</v>
+        <v>-1.845061578055027</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7020999965343986</v>
+        <v>0.7616784426967221</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.071929341684781</v>
+        <v>-1.150558885909725</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.2636829430323976</v>
+        <v>-0.2938166708766393</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.306118970113809</v>
+        <v>0.2326759636268777</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.14250260152189</v>
+        <v>-1.200128773435255</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.7217075996271038</v>
+        <v>-0.6106517343890279</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.236074652222869</v>
+        <v>2.360229159582339</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5863717285242414</v>
+        <v>0.713295184905862</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.052881746460368</v>
+        <v>1.112499681090925</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.967670478975684</v>
+        <v>3.945461146158181</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.571113652221491</v>
+        <v>1.494238583384844</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.319363810202387</v>
+        <v>2.147160746778495</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.613628006285815</v>
+        <v>2.651130175246446</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.741124962918416</v>
+        <v>0.740313112399848</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.285457838135421</v>
+        <v>1.270976764214636</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.1578096932071701</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5366293538732804</v>
+        <v>0.5366293538732806</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.6191157989491818</v>
@@ -983,7 +983,7 @@
         <v>-0.07958401055342666</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.148088272302217</v>
+        <v>0.1480882723022171</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3664933770732234</v>
+        <v>-0.3401387015764791</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6239550083501091</v>
+        <v>-0.6289748951014089</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.533376081135946</v>
+        <v>-0.5541735724188847</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.239669163710041</v>
+        <v>0.2314952741969966</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.418229789536286</v>
+        <v>-0.4541564146710218</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1117546169638049</v>
+        <v>-0.1573953404579164</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08576362520271802</v>
+        <v>0.0516332481907078</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4089620120988162</v>
+        <v>-0.4218099712532515</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2549812424263491</v>
+        <v>-0.2305589603264994</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.147187070240732</v>
+        <v>1.244072529566267</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3385189868773621</v>
+        <v>0.4441617131438255</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6303739067843488</v>
+        <v>0.6061038058068395</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.101230918019891</v>
+        <v>3.266353555411207</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.195073413674796</v>
+        <v>1.168772251096382</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.932396011431558</v>
+        <v>1.627443955507145</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.528215588301289</v>
+        <v>1.513814450444984</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.443078867432404</v>
+        <v>0.4302468104299143</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.7161728529567478</v>
+        <v>0.7519719749113463</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-0.9166899437375766</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.4526729750908575</v>
+        <v>0.4526729750908579</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03703851923974865</v>
+        <v>0.0507590961635316</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.170706329279456</v>
+        <v>-1.210452330913258</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.3099400358614772</v>
+        <v>-0.09192946153195225</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.87787976763402</v>
+        <v>-3.967732297254653</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.718753689422178</v>
+        <v>-3.679082678573029</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.076944493579471</v>
+        <v>-2.021057556785685</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.552377074519943</v>
+        <v>-1.605046269729777</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.083058688674166</v>
+        <v>-2.074681481946661</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.6409583698653682</v>
+        <v>-0.785804682756484</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.996446029581056</v>
+        <v>2.97934784501223</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.374190664724171</v>
+        <v>1.359847049995606</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.979337335875467</v>
+        <v>3.068069191255022</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.6038039584681055</v>
+        <v>-0.5501749655266153</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.00398917839549281</v>
+        <v>-0.1737479177588342</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.531601392329446</v>
+        <v>1.610332449639414</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6777015173371677</v>
+        <v>0.7100631372533313</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06265949964680526</v>
+        <v>0.1581336750458385</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.621645113688676</v>
+        <v>1.699063999495139</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.3619415869570144</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.1787312886938806</v>
+        <v>0.1787312886938808</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1000586291616931</v>
+        <v>-0.02655748287033001</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6196006631201644</v>
+        <v>-0.649391252916701</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3072995962272681</v>
+        <v>-0.1158631548341601</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.8224817683265762</v>
+        <v>-0.8232258535792071</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7564813847345834</v>
+        <v>-0.7567701747834491</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4287147396304403</v>
+        <v>-0.4178095025224689</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4852791263776414</v>
+        <v>-0.5073456984448612</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6572307030257059</v>
+        <v>-0.6486286106304237</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2126358612973142</v>
+        <v>-0.2598591616159072</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3.619192228523606</v>
+        <v>4.153908293919261</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.856273614334678</v>
+        <v>1.828114095847791</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.364660589278531</v>
+        <v>3.680474007762951</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.1746417646474642</v>
+        <v>-0.1020358413018522</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.03492275600584163</v>
+        <v>0.0084853823459478</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5423046007567635</v>
+        <v>0.5894895082493088</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.343903496377276</v>
+        <v>0.3719054433212498</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.06264715039951003</v>
+        <v>0.1131736894398171</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7875458055814518</v>
+        <v>0.847358926030209</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.09636344220833</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.7326284490535052</v>
+        <v>0.732628449053506</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.6885487534573551</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.061762071378407</v>
+        <v>-0.9767197096273592</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.2591343756971239</v>
+        <v>-0.2016196767828769</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.5526768407941289</v>
+        <v>-0.5727413408737526</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.5636638547056007</v>
+        <v>-0.6278222336017424</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.4949142783769732</v>
+        <v>-0.6290310939468157</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9871567641400677</v>
+        <v>1.10174263193443</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.4618041636741564</v>
+        <v>-0.4908784831112789</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.08943651605045501</v>
+        <v>0.05228068060028625</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.6907299707667183</v>
+        <v>0.7218634989119234</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.413221794928618</v>
+        <v>1.388530190569159</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.47263007074782</v>
+        <v>2.493662175892444</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.029037046684831</v>
+        <v>2.114935974928097</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.112819301509589</v>
+        <v>1.916119856263216</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.037953688199395</v>
+        <v>2.062805986661642</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.738922065637977</v>
+        <v>3.780380030947178</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.37692468062974</v>
+        <v>1.26605434657238</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.856112847291309</v>
+        <v>1.844083386959344</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.549388888175509</v>
+        <v>2.601726223782364</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.6079009092868231</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.4062206775628631</v>
+        <v>0.4062206775628635</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.3683808778635349</v>
@@ -1411,7 +1411,7 @@
         <v>0.4870608580205391</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.875377383817602</v>
+        <v>0.8753773838176023</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4577686335466589</v>
+        <v>-0.4590025478699239</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1544836642246371</v>
+        <v>-0.07908146291805937</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2489960877349027</v>
+        <v>-0.2662668486772178</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2472975360153378</v>
+        <v>-0.2617044886544537</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2469153336295242</v>
+        <v>-0.2906178733334359</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3726436286696512</v>
+        <v>0.4100013159304568</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2106210011722726</v>
+        <v>-0.2275753850260885</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.01204695569997774</v>
+        <v>0.02046925040010303</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2596961070714061</v>
+        <v>0.3255494877932409</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.099932081693804</v>
+        <v>0.9478963023004532</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.925700981089969</v>
+        <v>2.067702313962229</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.644579488890346</v>
+        <v>1.592595663120865</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.631687685584121</v>
+        <v>1.481571913481663</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.530888891534843</v>
+        <v>1.523230121730349</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.998827564776348</v>
+        <v>3.046397880592435</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9294519839556468</v>
+        <v>0.8688365768172794</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.237731868688823</v>
+        <v>1.303158197249302</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.728833132296864</v>
+        <v>1.85405120681242</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.2458133837111003</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.5353522049271957</v>
+        <v>0.535352204927195</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.6438244276749189</v>
@@ -1520,7 +1520,7 @@
         <v>0.1433551036977648</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.8346789633498903</v>
+        <v>0.8346789633498899</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2442278982273361</v>
+        <v>0.3387237900406828</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.3853001125991237</v>
+        <v>-0.4627904090881425</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.1522092185805877</v>
+        <v>-0.1580554950857171</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.1082897991092018</v>
+        <v>-0.1393394904779375</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.7198455879921424</v>
+        <v>-0.6612142350419348</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.3724360241826316</v>
+        <v>0.3959689829758021</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.24382622159114</v>
+        <v>0.2977097565231057</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.3613774072634584</v>
+        <v>-0.320032348299369</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.281144782744027</v>
+        <v>0.3089926138443771</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.763553056312729</v>
+        <v>1.847977307904096</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.9185874536380743</v>
+        <v>0.9645159978249149</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.247188637287711</v>
+        <v>1.331306094589645</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.40012798759396</v>
+        <v>1.360850983610964</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.7641089299570749</v>
+        <v>0.7717472757911789</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.83816025524868</v>
+        <v>1.807312644121682</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.363548777349338</v>
+        <v>1.366515928057718</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.657956891533657</v>
+        <v>0.6464866584431914</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.32482956072465</v>
+        <v>1.343091481020695</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.137254143805365</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.2989231400351878</v>
+        <v>0.2989231400351874</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.2908973829292523</v>
@@ -1625,7 +1625,7 @@
         <v>0.07148542741093025</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.4162208453476178</v>
+        <v>0.4162208453476177</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1149928892154521</v>
+        <v>0.1491215100696775</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1937069597568736</v>
+        <v>-0.2140139051265869</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.07722290277889127</v>
+        <v>-0.07884585676719462</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.04180153985005263</v>
+        <v>-0.06093165752120282</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2729638916758961</v>
+        <v>-0.2728732972506635</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.146231416655178</v>
+        <v>0.138418954084989</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.101617091515021</v>
+        <v>0.1332942254991813</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1610617881890763</v>
+        <v>-0.1388298921950992</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1214413955688149</v>
+        <v>0.1401831062177086</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.225195694100484</v>
+        <v>1.271629612124474</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.6245478706307503</v>
+        <v>0.6359113216273018</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.819747134058512</v>
+        <v>0.9082761048755975</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7786840163633402</v>
+        <v>0.7116514369806137</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3969271861936943</v>
+        <v>0.4320510325706386</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.002257524683595</v>
+        <v>0.9601241738687248</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7709238270787139</v>
+        <v>0.7778795171115139</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3738362272805165</v>
+        <v>0.3635303607522217</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.7485272693284455</v>
+        <v>0.7734919848036066</v>
       </c>
     </row>
     <row r="34">
